--- a/websiteautomation/ExcelData/Data Set.xlsx
+++ b/websiteautomation/ExcelData/Data Set.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{93E819E4-9239-4471-9E23-EF62FF0D1ABA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="2970" activeTab="1" xr2:uid="{90E3E9DB-23FC-47E8-B598-3390D0F19D45}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <oleSize ref="A1:K7"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Products</t>
   </si>
@@ -464,39 +453,348 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial Unicode MS"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="Arial"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -504,13 +802,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -525,24 +964,63 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="47" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="32" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="36" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="40" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="18" builtinId="23"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Explanatory Text" xfId="48" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Good" xfId="21" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="11" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="13" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24"/>
+    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Output" xfId="16" builtinId="21"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="Total" xfId="20" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -842,32 +1320,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E80CDB-8295-4A57-8D75-A02C083ED3C2}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="4" max="4" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="1" max="1" width="16.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="6" width="9.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="3" width="17.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="3" width="24.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="76.87999725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="5" width="9.13000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="16.500000">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -876,14 +1353,14 @@
       <c r="E1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>138</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="54.75" customHeight="1">
+    <row r="2" spans="1:7" ht="54.750000" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -908,7 +1385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17.300000">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,11 +1393,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C34" si="0">TEXT(B3,"0")</f>
+        <f>TEXT(B3,"0")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="3">
+        <v>43406</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f>TEXT(D3,"yyyy-mm-dd")</f>
+        <v>2018-11-02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.300000">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,11 +1412,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B4,"0")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" s="3">
+        <v>43407</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f>TEXT(D4,"yyyy-mm-dd")</f>
+        <v>2018-11-03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.300000">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,11 +1431,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B5,"0")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="3">
+        <v>43408</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>TEXT(D5,"yyyy-mm-dd")</f>
+        <v>2018-11-04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.300000">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,11 +1450,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B6,"0")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" s="3">
+        <v>43409</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f>TEXT(D6,"yyyy-mm-dd")</f>
+        <v>2018-11-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.300000">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,11 +1469,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B7,"0")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <f>TEXT(D7,"yyyy-mm-dd")</f>
+        <v>2018-11-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.300000">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -976,11 +1488,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B8,"0")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" s="3">
+        <v>43411</v>
+      </c>
+      <c r="E8" s="8" t="str">
+        <f>TEXT(D8,"yyyy-mm-dd")</f>
+        <v>2018-11-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.300000">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,11 +1507,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B9,"0")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" s="3">
+        <v>43412</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f>TEXT(D9,"yyyy-mm-dd")</f>
+        <v>2018-11-08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.300000">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,11 +1526,18 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B10,"0")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="3">
+        <v>43413</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f>TEXT(D10,"yyyy-mm-dd")</f>
+        <v>2018-11-09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.300000">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1012,11 +1545,18 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B11,"0")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="3">
+        <v>43414</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f>TEXT(D11,"yyyy-mm-dd")</f>
+        <v>2018-11-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.300000">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1024,11 +1564,18 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B12,"0")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12" s="3">
+        <v>43415</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f>TEXT(D12,"yyyy-mm-dd")</f>
+        <v>2018-11-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.300000">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1036,11 +1583,18 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B13,"0")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="3">
+        <v>43416</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f>TEXT(D13,"yyyy-mm-dd")</f>
+        <v>2018-11-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.300000">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1048,11 +1602,18 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B14,"0")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="3">
+        <v>43417</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f>TEXT(D14,"yyyy-mm-dd")</f>
+        <v>2018-11-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.300000">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1060,11 +1621,18 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B15,"0")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="3">
+        <v>43418</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f>TEXT(D15,"yyyy-mm-dd")</f>
+        <v>2018-11-14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.300000">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,11 +1640,18 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B16,"0")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <v>43419</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>TEXT(D16,"yyyy-mm-dd")</f>
+        <v>2018-11-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.300000">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1084,11 +1659,18 @@
         <v>20</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B17,"0")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <v>43420</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f>TEXT(D17,"yyyy-mm-dd")</f>
+        <v>2018-11-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.300000">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1096,11 +1678,18 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B18,"0")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <v>43421</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f>TEXT(D18,"yyyy-mm-dd")</f>
+        <v>2018-11-17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.300000">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1108,11 +1697,18 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B19,"0")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <v>43422</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f>TEXT(D19,"yyyy-mm-dd")</f>
+        <v>2018-11-18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.300000">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1120,11 +1716,18 @@
         <v>25</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B20,"0")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <v>43423</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f>TEXT(D20,"yyyy-mm-dd")</f>
+        <v>2018-11-19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.300000">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1132,11 +1735,18 @@
         <v>26</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B21,"0")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <v>43424</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f>TEXT(D21,"yyyy-mm-dd")</f>
+        <v>2018-11-20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.300000">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1144,11 +1754,18 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B22,"0")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3">
+        <v>43425</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>TEXT(D22,"yyyy-mm-dd")</f>
+        <v>2018-11-21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.300000">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1156,11 +1773,18 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B23,"0")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3">
+        <v>43426</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>TEXT(D23,"yyyy-mm-dd")</f>
+        <v>2018-11-22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.300000">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1168,11 +1792,18 @@
         <v>29</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B24,"0")</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3">
+        <v>43427</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>TEXT(D24,"yyyy-mm-dd")</f>
+        <v>2018-11-23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.300000">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1180,11 +1811,18 @@
         <v>30</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B25,"0")</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3">
+        <v>43428</v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f>TEXT(D25,"yyyy-mm-dd")</f>
+        <v>2018-11-24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.300000">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1192,11 +1830,18 @@
         <v>31</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B26,"0")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3">
+        <v>43429</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f>TEXT(D26,"yyyy-mm-dd")</f>
+        <v>2018-11-25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.300000">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1204,11 +1849,18 @@
         <v>32</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B27,"0")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3">
+        <v>43430</v>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f>TEXT(D27,"yyyy-mm-dd")</f>
+        <v>2018-11-26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.300000">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1216,11 +1868,18 @@
         <v>33</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B28,"0")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3">
+        <v>43431</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f>TEXT(D28,"yyyy-mm-dd")</f>
+        <v>2018-11-27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.300000">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1228,11 +1887,18 @@
         <v>46</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B29,"0")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3">
+        <v>43432</v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f>TEXT(D29,"yyyy-mm-dd")</f>
+        <v>2018-11-28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.300000">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1240,11 +1906,18 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B30,"0")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3">
+        <v>43433</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>TEXT(D30,"yyyy-mm-dd")</f>
+        <v>2018-11-29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.300000">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1252,11 +1925,15 @@
         <v>48</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B31,"0")</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3">
+        <v>43434</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.300000">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1264,11 +1941,11 @@
         <v>49</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B32,"0")</f>
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="17.300000">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1276,11 +1953,11 @@
         <v>50</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B33,"0")</f>
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="17.300000">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1288,107 +1965,107 @@
         <v>51</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B34,"0")</f>
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="16.500000">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="16.500000">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="16.500000">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="16.500000">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="16.500000">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="16.500000">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="16.500000">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="16.500000">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="16.500000">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="16.500000">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="16.500000">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="16.500000">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="16.500000">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="16.500000">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="16.500000">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="16.500000">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1826,23 +2503,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D74DED4-9025-4D8B-8B24-2DDD6D3B8F25}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="16.75499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2314,7 +2991,8 @@
       <c r="A136" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>